--- a/utopia/paintings/assets/images_data.xlsx
+++ b/utopia/paintings/assets/images_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\website\utopia\paintings\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6F36A5-A7D9-4E23-87ED-28B15C6D34AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35510E6C-A288-4C30-A251-FEA5AC5ED067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>image_id</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>Unfolded Green</t>
+  </si>
+  <si>
+    <t>mar_food_flower</t>
+  </si>
+  <si>
+    <t>assets/mar_food_flower.jpg</t>
+  </si>
+  <si>
+    <t>assets/apr_food_flower.jpg</t>
+  </si>
+  <si>
+    <t>apr_food_flower</t>
   </si>
 </sst>
 </file>
@@ -668,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,6 +1183,22 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utopia/paintings/assets/images_data.xlsx
+++ b/utopia/paintings/assets/images_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\website\utopia\paintings\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35510E6C-A288-4C30-A251-FEA5AC5ED067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39822C-4F35-4C73-B059-209CEE442D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>image_id</t>
   </si>
@@ -39,12 +39,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>dislikes</t>
-  </si>
-  <si>
     <t>assets/fruits.jpg</t>
   </si>
   <si>
@@ -349,6 +343,33 @@
   </si>
   <si>
     <t>apr_food_flower</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>may_food_flower</t>
+  </si>
+  <si>
+    <t>assets/may_food_flower.jpg</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
 </sst>
 </file>
@@ -680,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,22 +729,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -731,13 +748,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -745,13 +762,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -759,13 +776,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -773,13 +790,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -787,13 +804,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -801,13 +818,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -815,13 +832,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -829,13 +846,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -843,13 +860,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -857,13 +874,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -871,13 +888,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -885,13 +902,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -899,13 +916,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -913,13 +930,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -927,13 +944,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -941,13 +958,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -955,13 +972,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -969,13 +986,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -983,13 +1000,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -997,13 +1014,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1011,13 +1028,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1025,13 +1042,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1039,13 +1056,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1053,13 +1070,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1067,13 +1084,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1081,13 +1098,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1095,13 +1112,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1109,13 +1126,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1123,13 +1140,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1137,66 +1154,91 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
